--- a/data/s_vals/2023/floro_dylan.xlsx
+++ b/data/s_vals/2023/floro_dylan.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.528112419682373</v>
+        <v>5.488907176552729</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.478391873985803</v>
+        <v>3.034748368925986</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C4" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.305734408293376</v>
+        <v>8.418600821238126</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2163179218109788</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.41506822471379</v>
+        <v>3.887983419343961</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C6" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.01336155860313</v>
+        <v>10.35301142835362</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.068618644991547</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C7" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.954971833693158</v>
+        <v>2.652525447291612</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.698639545626816</v>
+        <v>1.719096746035642</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C9" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7359022058705</v>
+        <v>3.594575437922795</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C10" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.528112419682373</v>
+        <v>5.488907176552729</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C11" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>6.305734408293376</v>
+        <v>8.418600821238126</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.068618644991547</v>
+        <v>0.3464964993005633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2163179218109788</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.841927638724574</v>
+        <v>1.051601690082842</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C13" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.534330581289337</v>
+        <v>4.371470058157054</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C14" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D14" t="n">
-        <v>2.084191109552682</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>7.39542525751567</v>
+        <v>22.31973251085698</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C15" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>6.784765385607169</v>
+        <v>14.40014219143469</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C16" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.528112419682373</v>
+        <v>5.488907176552729</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C17" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.276820249404641</v>
+        <v>3.811642989160245</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C18" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>5.78562275156707</v>
+        <v>6.048734245549538</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2051611557409778</v>
+        <v>0.006876353814593728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07547255899491345</v>
+        <v>0.004309184025731883</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.615246775268942</v>
+        <v>3.593671671617961</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C20" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.478391873985803</v>
+        <v>3.034748368925986</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C21" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>6.305734408293376</v>
+        <v>8.418600821238126</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C22" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8191437775164554</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>4.214933183184292</v>
+        <v>9.576116808119359</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/floro_dylan.xlsx
+++ b/data/s_vals/2023/floro_dylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>5.488907176552729</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>3.034748368925986</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>8.418600821238126</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>3.887983419343961</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>10.35301142835362</v>
       </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>2.652525447291612</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>1.719096746035642</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>3.594575437922795</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>5.488907176552729</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>8.418600821238126</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>1.051601690082842</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>4.371470058157054</v>
       </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>22.31973251085698</v>
       </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>14.40014219143469</v>
       </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>5.488907176552729</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>3.811642989160245</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -889,6 +942,9 @@
       <c r="G18" t="n">
         <v>6.048734245549538</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -914,6 +970,9 @@
       <c r="G19" t="n">
         <v>3.593671671617961</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -939,6 +998,9 @@
       <c r="G20" t="n">
         <v>3.034748368925986</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -964,6 +1026,9 @@
       <c r="G21" t="n">
         <v>8.418600821238126</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -988,6 +1053,9 @@
       </c>
       <c r="G22" t="n">
         <v>9.576116808119359</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/floro_dylan.xlsx
+++ b/data/s_vals/2023/floro_dylan.xlsx
@@ -551,7 +551,7 @@
         <v>8.418600821238126</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +747,7 @@
         <v>8.418600821238126</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1027,7 +1027,7 @@
         <v>8.418600821238126</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">

--- a/data/s_vals/2023/floro_dylan.xlsx
+++ b/data/s_vals/2023/floro_dylan.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.488907176552729</v>
+        <v>5.586269137925634</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.034748368925986</v>
+        <v>2.960089034096801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>8.418600821238126</v>
+        <v>8.974608811992548</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05231270169004087</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.887983419343961</v>
+        <v>3.9712075397307</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C6" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E6" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10.35301142835362</v>
+        <v>14.05633640148523</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3464964993005633</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C7" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.652525447291612</v>
+        <v>2.591208233317391</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.719096746035642</v>
+        <v>1.611132179096228</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C9" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.594575437922795</v>
+        <v>3.56341032713086</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C10" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.488907176552729</v>
+        <v>5.586269137925634</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C11" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D11" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>8.418600821238126</v>
+        <v>8.974608811992548</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3464964993005633</v>
+        <v>0.2917716402565462</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05231270169004087</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.051601690082842</v>
+        <v>0.9761466351224579</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.371470058157054</v>
+        <v>4.358119930609447</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C14" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D14" t="n">
-        <v>16.98373111632243</v>
+        <v>22.3905356188092</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>22.31973251085698</v>
+        <v>27.82738278199502</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C15" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D15" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E15" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>14.40014219143469</v>
+        <v>18.67282528286833</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C16" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.488907176552729</v>
+        <v>5.586269137925634</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C17" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3.811642989160245</v>
+        <v>3.754798637575387</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C18" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006876353814593728</v>
+        <v>0.003208871385164791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004309184025731883</v>
+        <v>0.002571899574220771</v>
       </c>
       <c r="D19" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.593671671617961</v>
+        <v>4.037778955826875</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C20" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.034748368925986</v>
+        <v>2.960089034096801</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C21" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D21" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>8.418600821238126</v>
+        <v>8.974608811992548</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1037,22 +1037,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C22" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E22" t="n">
-        <v>6.48142807727062</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.576116808119359</v>
+        <v>13.26162679800665</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
